--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -451,715 +451,965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001054</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>工银新金融股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>90.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>006314</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>中融策略优选混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006315</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001225</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮趋势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>61.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003145</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融竞争优势股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>001225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>中邮趋势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009547</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安鼎利混合</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64.44</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001225</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮趋势精选灵活配置混合</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002004</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>72.58</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>002004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>工银瑞信新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>009547</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>华安鼎利混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>64.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2303,4 +2304,2452 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2517</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6859</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4143</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4752,4 +4753,2110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1910</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0679</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9952</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3630</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6859,4 +6860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6868,7 +6869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6879,17 +6880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6899,14 +6920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.81</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6915,14 +6958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.27</v>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6931,14 +6996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.09</v>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6947,13 +7034,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2733</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6449</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8445,7 +8446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8456,17 +8457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8476,14 +8497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.76</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8492,14 +8535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.81</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8508,14 +8573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.27</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8524,14 +8611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.09</v>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8540,13 +8649,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9072,7 +9073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9083,17 +9084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9103,14 +9124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.96</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9119,14 +9162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.76</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9135,14 +9200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.81</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9151,14 +9238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.27</v>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9167,14 +9276,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.09</v>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -9183,13 +9314,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>4.46</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>4.96</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>16.76</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>24.81</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>26.27</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>4.09</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.04</v>
       </c>
     </row>
@@ -600,6 +617,3440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>294.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3579,7 +7030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5685,7 +9136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8133,7 +11584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9025,7 +12476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002409-雅克科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>27.74</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>4.46</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.96</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>16.76</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>24.81</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>26.27</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>4.09</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1602,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9626</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4050,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4828,7 +7083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5454,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7030,7 +9285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9136,7 +11391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11584,7 +13839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12474,972 +14729,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7517</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001225</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮趋势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6576</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银新金融股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5340</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4756</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006314</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4491</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3272</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1320</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1280</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1260</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003145</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融竞争优势股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>61.57</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006315</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>